--- a/Civilworks cost/PPT Progress Review Meeting/dframes.xlsx
+++ b/Civilworks cost/PPT Progress Review Meeting/dframes.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="completed" sheetId="1" r:id="rId1"/>
     <sheet name="remaining" sheetId="2" r:id="rId2"/>
+    <sheet name="Current_month" sheetId="3" r:id="rId3"/>
+    <sheet name="Prev_cum" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
   <si>
     <t>StructureName</t>
   </si>
@@ -50,25 +52,25 @@
     <t>2021-22</t>
   </si>
   <si>
-    <t>Irrigation Inlet</t>
+    <t>Construction of Irrigation Inlet</t>
   </si>
   <si>
-    <t>Re-installation/Construction of regulator/ Causeway (Rehablitation Sub-project)</t>
+    <t>Regulator Re-installation (Rehablitation Sub-project)</t>
   </si>
   <si>
-    <t>Construction of Regulator/ Causeway/Drainage Box Outler</t>
+    <t>Construction of Regulator/ Causeway/Drainage Box Outler (New Haor)</t>
   </si>
   <si>
-    <t>Re-excavation of Khal/River</t>
+    <t>Re-excavation of Khal/River (New Haor)</t>
   </si>
   <si>
-    <t>Re-excavation of Khal/River (Rehab)</t>
+    <t>Re-excavation of Khal/River (Rehab Haor)</t>
   </si>
   <si>
-    <t>Construction of Full Embankment</t>
+    <t>Construction of Full Embankment (Rehab Haor)</t>
   </si>
   <si>
-    <t>Construction of Submersible Embankment (Rehab)</t>
+    <t>Construction of Submersible Embankment (Rehab Haor)</t>
   </si>
   <si>
     <t>Construction of Submersible Embankment (New Haor)</t>
@@ -80,7 +82,7 @@
     <t>Construction of WMG office</t>
   </si>
   <si>
-    <t>Threshing Floor Construction</t>
+    <t>Construction of Threshing Floor</t>
   </si>
   <si>
     <t>Replecement of Gate (Netrokona &amp; Kishoregonj)</t>
@@ -1451,4 +1453,1012 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>116</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>337.954</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>75</v>
+      </c>
+      <c r="L5">
+        <v>31.94999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>108.974</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>34.97</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>67.11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>7.109999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>61.21</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.1000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>261.653</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>23.64999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>116</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>68</v>
+      </c>
+      <c r="L4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>337.954</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>130</v>
+      </c>
+      <c r="J5">
+        <v>210</v>
+      </c>
+      <c r="K5">
+        <v>231</v>
+      </c>
+      <c r="L5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>108.974</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <v>108.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>67.11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>67.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>61.21</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>61.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>261.653</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>164</v>
+      </c>
+      <c r="K9">
+        <v>188</v>
+      </c>
+      <c r="L9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>53</v>
+      </c>
+      <c r="K13">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/PPT Progress Review Meeting/dframes.xlsx
+++ b/Civilworks cost/PPT Progress Review Meeting/dframes.xlsx
@@ -465,7 +465,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>429.3</v>
       </c>
       <c r="L2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -551,28 +551,28 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="E2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="F2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="G2">
-        <v>582.8200000000001</v>
+        <v>589.88</v>
       </c>
       <c r="H2">
-        <v>517.1900000000001</v>
+        <v>524.25</v>
       </c>
       <c r="I2">
-        <v>420.1500000000001</v>
+        <v>427.21</v>
       </c>
       <c r="J2">
-        <v>322.64</v>
+        <v>329.7</v>
       </c>
       <c r="K2">
-        <v>162.64</v>
+        <v>169.7</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>160</v>
       </c>
       <c r="L2">
-        <v>162.64</v>
+        <v>169.7</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>591.9400000000001</v>
+        <v>599</v>
       </c>
       <c r="E2">
         <v>0</v>
